--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.717751000000001</v>
+        <v>1.389617666666667</v>
       </c>
       <c r="H2">
-        <v>14.153253</v>
+        <v>4.168853</v>
       </c>
       <c r="I2">
-        <v>0.03525619328121486</v>
+        <v>0.01005942246918146</v>
       </c>
       <c r="J2">
-        <v>0.03525619328121486</v>
+        <v>0.01005942246918146</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,33 +555,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02042033333333334</v>
+        <v>0.0003833333333333333</v>
       </c>
       <c r="N2">
-        <v>0.061261</v>
+        <v>0.00115</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.005317132262509131</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.005317132262509131</v>
       </c>
       <c r="Q2">
-        <v>0.09633804800366669</v>
+        <v>0.0005326867722222224</v>
       </c>
       <c r="R2">
-        <v>0.8670424320330001</v>
+        <v>0.00479418095</v>
       </c>
       <c r="S2">
-        <v>0.03525619328121486</v>
+        <v>5.348727975309399E-05</v>
       </c>
       <c r="T2">
-        <v>0.03525619328121486</v>
+        <v>5.348727975309399E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.159304333333333</v>
+        <v>1.389617666666667</v>
       </c>
       <c r="H3">
-        <v>6.477913</v>
+        <v>4.168853</v>
       </c>
       <c r="I3">
-        <v>0.01613668269668424</v>
+        <v>0.01005942246918146</v>
       </c>
       <c r="J3">
-        <v>0.01613668269668424</v>
+        <v>0.01005942246918146</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.02042033333333334</v>
+        <v>0.07171066666666667</v>
       </c>
       <c r="N3">
-        <v>0.061261</v>
+        <v>0.215132</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9946828677374909</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9946828677374908</v>
       </c>
       <c r="Q3">
-        <v>0.04409371425477779</v>
+        <v>0.09965040928844447</v>
       </c>
       <c r="R3">
-        <v>0.396843428293</v>
+        <v>0.8968536835960002</v>
       </c>
       <c r="S3">
-        <v>0.01613668269668424</v>
+        <v>0.01000593518942836</v>
       </c>
       <c r="T3">
-        <v>0.01613668269668424</v>
+        <v>0.01000593518942836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.928343666666667</v>
+        <v>2.159304333333333</v>
       </c>
       <c r="H4">
-        <v>5.785031</v>
+        <v>6.477913</v>
       </c>
       <c r="I4">
-        <v>0.01441069209133898</v>
+        <v>0.01563117327130572</v>
       </c>
       <c r="J4">
-        <v>0.01441069209133898</v>
+        <v>0.01563117327130572</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02042033333333334</v>
+        <v>0.0003833333333333333</v>
       </c>
       <c r="N4">
-        <v>0.061261</v>
+        <v>0.00115</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.005317132262509131</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.005317132262509131</v>
       </c>
       <c r="Q4">
-        <v>0.03937742045455556</v>
+        <v>0.0008277333277777779</v>
       </c>
       <c r="R4">
-        <v>0.354396784091</v>
+        <v>0.00744959995</v>
       </c>
       <c r="S4">
-        <v>0.01441069209133898</v>
+        <v>8.311301570173001E-05</v>
       </c>
       <c r="T4">
-        <v>0.01441069209133898</v>
+        <v>8.311301570173001E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,46 +723,294 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>125.0079983333333</v>
+        <v>2.159304333333333</v>
       </c>
       <c r="H5">
-        <v>375.023995</v>
+        <v>6.477913</v>
       </c>
       <c r="I5">
-        <v>0.9341964319307619</v>
+        <v>0.01563117327130572</v>
       </c>
       <c r="J5">
-        <v>0.934196431930762</v>
+        <v>0.01563117327130572</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.07171066666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.215132</v>
+      </c>
+      <c r="O5">
+        <v>0.9946828677374909</v>
+      </c>
+      <c r="P5">
+        <v>0.9946828677374908</v>
+      </c>
+      <c r="Q5">
+        <v>0.1548451532795556</v>
+      </c>
+      <c r="R5">
+        <v>1.393606379516</v>
+      </c>
+      <c r="S5">
+        <v>0.01554806025560399</v>
+      </c>
+      <c r="T5">
+        <v>0.01554806025560398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.6734466666666666</v>
+      </c>
+      <c r="H6">
+        <v>2.02034</v>
+      </c>
+      <c r="I6">
+        <v>0.004875070814774726</v>
+      </c>
+      <c r="J6">
+        <v>0.004875070814774726</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M5">
-        <v>0.02042033333333334</v>
-      </c>
-      <c r="N5">
-        <v>0.061261</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>2.552704995299445</v>
-      </c>
-      <c r="R5">
-        <v>22.974344957695</v>
-      </c>
-      <c r="S5">
-        <v>0.9341964319307619</v>
-      </c>
-      <c r="T5">
-        <v>0.934196431930762</v>
+      <c r="M6">
+        <v>0.0003833333333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.00115</v>
+      </c>
+      <c r="O6">
+        <v>0.005317132262509131</v>
+      </c>
+      <c r="P6">
+        <v>0.005317132262509131</v>
+      </c>
+      <c r="Q6">
+        <v>0.0002581545555555556</v>
+      </c>
+      <c r="R6">
+        <v>0.002323391</v>
+      </c>
+      <c r="S6">
+        <v>2.592139631125537E-05</v>
+      </c>
+      <c r="T6">
+        <v>2.592139631125537E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6734466666666666</v>
+      </c>
+      <c r="H7">
+        <v>2.02034</v>
+      </c>
+      <c r="I7">
+        <v>0.004875070814774726</v>
+      </c>
+      <c r="J7">
+        <v>0.004875070814774726</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.07171066666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.215132</v>
+      </c>
+      <c r="O7">
+        <v>0.9946828677374909</v>
+      </c>
+      <c r="P7">
+        <v>0.9946828677374908</v>
+      </c>
+      <c r="Q7">
+        <v>0.04829330943111111</v>
+      </c>
+      <c r="R7">
+        <v>0.43463978488</v>
+      </c>
+      <c r="S7">
+        <v>0.00484914941846347</v>
+      </c>
+      <c r="T7">
+        <v>0.00484914941846347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>133.9185306666667</v>
+      </c>
+      <c r="H8">
+        <v>401.755592</v>
+      </c>
+      <c r="I8">
+        <v>0.9694343334447382</v>
+      </c>
+      <c r="J8">
+        <v>0.9694343334447382</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.0003833333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.00115</v>
+      </c>
+      <c r="O8">
+        <v>0.005317132262509131</v>
+      </c>
+      <c r="P8">
+        <v>0.005317132262509131</v>
+      </c>
+      <c r="Q8">
+        <v>0.05133543675555556</v>
+      </c>
+      <c r="R8">
+        <v>0.4620189307999999</v>
+      </c>
+      <c r="S8">
+        <v>0.005154610570743052</v>
+      </c>
+      <c r="T8">
+        <v>0.005154610570743052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>133.9185306666667</v>
+      </c>
+      <c r="H9">
+        <v>401.755592</v>
+      </c>
+      <c r="I9">
+        <v>0.9694343334447382</v>
+      </c>
+      <c r="J9">
+        <v>0.9694343334447382</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.07171066666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.215132</v>
+      </c>
+      <c r="O9">
+        <v>0.9946828677374909</v>
+      </c>
+      <c r="P9">
+        <v>0.9946828677374908</v>
+      </c>
+      <c r="Q9">
+        <v>9.603387113127113</v>
+      </c>
+      <c r="R9">
+        <v>86.430484018144</v>
+      </c>
+      <c r="S9">
+        <v>0.9642797228739952</v>
+      </c>
+      <c r="T9">
+        <v>0.9642797228739951</v>
       </c>
     </row>
   </sheetData>
